--- a/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.calabretta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="c Matrix_Model_Threshold" sheetId="7" r:id="rId5"/>
     <sheet name="Fields definition" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="132">
   <si>
     <t>Matrix</t>
   </si>
@@ -440,16 +440,115 @@
     <t>OrderPosition</t>
   </si>
   <si>
+    <t>MOD_BIB_CORPORATE_2</t>
+  </si>
+  <si>
     <t>MOD_BIB_CORPORATE_1</t>
   </si>
   <si>
-    <t>MOD_BIB_CORPORATE_2</t>
+    <t>WS_BIB_CORPORATE</t>
+  </si>
+  <si>
+    <t>WS_BIB_CORPORATE_DEFAULTMATRIX</t>
+  </si>
+  <si>
+    <t>WS_BIB_CORPORATE_DEFAULT_MATRIX</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL_DEFAULT_MATRIX</t>
+  </si>
+  <si>
+    <t>MOD_BIB_RETAIL_1</t>
+  </si>
+  <si>
+    <t>MOD_BIB_RETAIL_2</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL_DEFAULTMATRIX</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_01_X4</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_01_X3</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_01_X2</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_01_X1</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_02_Y4</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_02_Y3</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_02_Y2</t>
+  </si>
+  <si>
+    <t>MXMD_RETAIL_DEFAULT_02_Y1</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_0</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_1</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_2</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_3</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_4</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_5</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_6</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_7</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_8</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_9</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_10</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_11</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_12</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_13</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_14</t>
+  </si>
+  <si>
+    <t>MXMD_DEFAULT-WS_BIB_RETAIL_DEFAULT_MATRIX_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +574,7 @@
       <name val="Trebuchet MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +584,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -508,7 +625,12 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,19 +1151,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="10" width="17.5703125" customWidth="1"/>
+    <col min="5" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,7 +1223,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -1117,6 +1240,26 @@
         <v>60</v>
       </c>
       <c r="K3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1129,20 +1272,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -1191,418 +1334,866 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="9">
         <v>15</v>
       </c>
     </row>
@@ -1618,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +2221,7 @@
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
@@ -1674,17 +2265,17 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1695,19 +2286,59 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1721,18 +2352,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1763,6 +2395,46 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1774,18 +2446,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="2" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="17.5703125" customWidth="1"/>
   </cols>
@@ -1829,186 +2500,386 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.2404</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.2404</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.55E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.55E-2</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F7" s="10">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="10">
         <v>0.9</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G11" s="10">
         <v>400</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="10">
         <v>0.7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G12" s="10">
         <v>0.9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="10">
         <v>0.5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G13" s="10">
         <v>0.7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G14" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="H7" s="5" t="s">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="H8" s="5" t="s">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H9" s="5" t="s">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G18" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>96</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/26_Inst_Matrix_Default.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="4"/>
+    <workbookView xWindow="13050" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="739" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
       <name val="Trebuchet MS"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,12 +598,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -629,7 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +1268,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1279,7 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1766,434 +1759,434 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="F27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="F28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="F30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="F31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="F32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="9" t="s">
+      <c r="F33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="F34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="6">
         <v>15</v>
       </c>
     </row>
@@ -2212,7 +2205,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,42 +2296,44 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2355,7 +2350,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,22 +2413,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2448,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,10 +2508,10 @@
       <c r="E3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.2404</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -2537,10 +2532,10 @@
       <c r="E4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.2404</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2561,10 +2556,10 @@
       <c r="E5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1.55E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -2585,10 +2580,10 @@
       <c r="E6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1.55E-2</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -2609,10 +2604,10 @@
       <c r="E7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.16569999999999999</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -2633,10 +2628,10 @@
       <c r="E8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0.16569999999999999</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -2657,10 +2652,10 @@
       <c r="E9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -2681,10 +2676,10 @@
       <c r="E10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -2705,11 +2700,11 @@
       <c r="E11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="10">
-        <v>400</v>
+      <c r="F11" s="6">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>93</v>
@@ -2729,11 +2724,11 @@
       <c r="E12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.9</v>
+      <c r="F12" s="6">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.43619999999999998</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>94</v>
@@ -2753,11 +2748,11 @@
       <c r="E13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.7</v>
+      <c r="F13" s="6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>95</v>
@@ -2777,11 +2772,11 @@
       <c r="E14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.5</v>
+      <c r="G14" s="6">
+        <v>1.61E-2</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>96</v>
@@ -2801,11 +2796,11 @@
       <c r="E15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.46</v>
+      <c r="F15" s="6">
+        <v>0.6966</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>93</v>
@@ -2825,11 +2820,11 @@
       <c r="E16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.3</v>
+      <c r="F16" s="6">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.6966</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>94</v>
@@ -2849,11 +2844,11 @@
       <c r="E17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.2</v>
+      <c r="F17" s="6">
+        <v>0.111</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.17130000000000001</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>95</v>
@@ -2873,11 +2868,11 @@
       <c r="E18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
-        <v>0.12</v>
+      <c r="G18" s="6">
+        <v>0.111</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>96</v>
@@ -2894,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
